--- a/accessdb/templateSheets/07defFamSheet.xlsx
+++ b/accessdb/templateSheets/07defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C3E92-683E-491F-8472-C4508C115017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC78CA-FE62-4F2B-A7D8-D1EDD8B688A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -1203,9 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:I1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:I47"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1691,7 +1689,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>21</v>
       </c>

--- a/accessdb/templateSheets/07defFamSheet.xlsx
+++ b/accessdb/templateSheets/07defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC78CA-FE62-4F2B-A7D8-D1EDD8B688A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D3646-FECC-4FD7-9BE9-6DDB00F36808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -392,12 +392,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -425,6 +419,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +448,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +467,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -475,7 +481,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -489,7 +495,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -503,7 +509,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -517,7 +523,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -531,7 +537,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1203,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:I1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1223,7 +1231,7 @@
       <c r="H1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
@@ -1235,7 +1243,7 @@
       <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
@@ -1247,7 +1255,7 @@
       <c r="H3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1259,31 +1267,31 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1294,13 +1302,13 @@
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
@@ -1309,13 +1317,13 @@
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
@@ -1324,13 +1332,13 @@
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
@@ -1339,13 +1347,13 @@
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
@@ -1354,13 +1362,13 @@
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
@@ -1369,13 +1377,13 @@
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
@@ -1384,13 +1392,13 @@
       <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
@@ -1399,13 +1407,13 @@
       <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
@@ -1414,13 +1422,13 @@
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
@@ -1429,13 +1437,13 @@
       <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
@@ -1444,13 +1452,13 @@
       <c r="B16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
@@ -1459,13 +1467,13 @@
       <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
@@ -1474,13 +1482,13 @@
       <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
@@ -1489,13 +1497,13 @@
       <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
@@ -1504,13 +1512,13 @@
       <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
@@ -1519,104 +1527,104 @@
       <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
@@ -1625,28 +1633,28 @@
       <c r="B29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>18</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
@@ -1655,239 +1663,239 @@
       <c r="B31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>20</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>21</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>22</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>23</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>24</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>25</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>26</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>27</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>28</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>29</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
@@ -1896,13 +1904,13 @@
       <c r="B48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1916,7 +1924,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="6"/>
@@ -1928,7 +1936,7 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="25"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1938,7 +1946,7 @@
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="1"/>
@@ -1951,7 +1959,7 @@
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="1"/>
@@ -1964,7 +1972,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="9"/>
@@ -1976,7 +1984,7 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B55" s="9"/>
